--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F677BE8-FF20-4F86-B984-173DF3AD7F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F864A9E-E42D-4CE9-A71B-8EF94516E045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -78,9 +78,6 @@
     <t>PR tYPE</t>
   </si>
   <si>
-    <t>Nature</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -168,18 +165,6 @@
     <t/>
   </si>
   <si>
-    <t>CP-APEX</t>
-  </si>
-  <si>
-    <t>EMEAAD\spineau</t>
-  </si>
-  <si>
-    <t>EMEAAD\msinno</t>
-  </si>
-  <si>
-    <t>MAD</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -189,9 +174,6 @@
     <t>Aix  Golf</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>docType</t>
   </si>
   <si>
@@ -201,48 +183,24 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>TEST_AUTO_OAR_08032022_03</t>
-  </si>
-  <si>
     <t>Product3</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>4290</t>
-  </si>
-  <si>
-    <t>Contractors</t>
-  </si>
-  <si>
     <t>190000</t>
   </si>
   <si>
-    <t>EMEAAD\esoyer</t>
-  </si>
-  <si>
-    <t>EMEAAD\pbuisson</t>
-  </si>
-  <si>
-    <t>Provide2018</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
     <t>It</t>
   </si>
   <si>
-    <t>S00006372002</t>
-  </si>
-  <si>
     <t>Coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Test 362 </t>
-  </si>
-  <si>
     <t>HW - Network Security</t>
   </si>
   <si>
@@ -259,6 +217,27 @@
   </si>
   <si>
     <t>362</t>
+  </si>
+  <si>
+    <t>Test Automation India Anmol</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>Provide123*</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>S00008044001</t>
+  </si>
+  <si>
+    <t>Eur</t>
+  </si>
+  <si>
+    <t>EMEAAD\srofidal</t>
   </si>
 </sst>
 </file>
@@ -325,12 +304,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -361,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -379,6 +364,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,45 +670,44 @@
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
     <col min="20" max="21" width="21.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" customWidth="1"/>
-    <col min="24" max="25" width="15.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="19.7109375" customWidth="1"/>
-    <col min="31" max="31" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" customWidth="1"/>
+    <col min="23" max="24" width="15.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="19.7109375" customWidth="1"/>
+    <col min="30" max="30" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
@@ -729,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
@@ -738,264 +725,257 @@
         <v>2</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>8</v>
+      <c r="W1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AE1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>44</v>
+      <c r="Y3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="Z3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F864A9E-E42D-4CE9-A71B-8EF94516E045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA0E90-6DCD-431D-8AB1-66B7601B23E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>EMEAAD\srofidal</t>
+  </si>
+  <si>
+    <t>EMEAAD\pvergez</t>
   </si>
 </sst>
 </file>
@@ -346,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -367,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +865,7 @@
       <c r="Z2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="16" t="s">
         <v>35</v>
       </c>
       <c r="AB2" s="9" t="s">
@@ -959,8 +963,8 @@
       <c r="Z3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="6" t="s">
-        <v>35</v>
+      <c r="AA3" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>35</v>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA0E90-6DCD-431D-8AB1-66B7601B23E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5ECAC7-A674-42F9-8069-415AE96BD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>EMEAAD\pvergez</t>
+  </si>
+  <si>
+    <t>EMEAAD\bcornu</t>
   </si>
 </sst>
 </file>
@@ -654,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="6" t="s">
         <v>35</v>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5ECAC7-A674-42F9-8069-415AE96BD1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678EDF8-1BD3-40B3-A54C-EBF2A11A12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678EDF8-1BD3-40B3-A54C-EBF2A11A12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B486D7-49BA-4238-B2D7-17863CC59473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -186,12 +186,6 @@
     <t>Product3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>190000</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
@@ -244,6 +238,18 @@
   </si>
   <si>
     <t>EMEAAD\bcornu</t>
+  </si>
+  <si>
+    <t>SellingPrice</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -310,7 +316,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,7 +325,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,10 +382,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,16 +694,16 @@
     <col min="19" max="19" width="26" customWidth="1"/>
     <col min="20" max="21" width="21.85546875" customWidth="1"/>
     <col min="22" max="22" width="7.42578125" customWidth="1"/>
-    <col min="23" max="24" width="15.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="19.7109375" customWidth="1"/>
-    <col min="30" max="30" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="15.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="19.7109375" customWidth="1"/>
+    <col min="31" max="31" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -740,7 +752,7 @@
       <c r="P1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -753,7 +765,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>7</v>
@@ -764,32 +776,35 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -800,13 +815,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -815,10 +830,10 @@
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>35</v>
@@ -830,13 +845,13 @@
         <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>35</v>
@@ -851,43 +866,46 @@
         <v>35</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AA2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="13" t="s">
         <v>35</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AD2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -898,34 +916,34 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>41</v>
@@ -934,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>35</v>
@@ -949,39 +967,42 @@
         <v>35</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>61</v>
+      <c r="AA3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>35</v>
+      <c r="AD3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="AF3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="6" t="s">
         <v>35</v>
       </c>
     </row>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,17 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B486D7-49BA-4238-B2D7-17863CC59473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6457E45-9246-4888-914A-61CD00256A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -153,9 +163,6 @@
     <t>PRForm</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>TEST</t>
   </si>
   <si>
@@ -165,12 +172,6 @@
     <t/>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>Aix  Golf</t>
   </si>
   <si>
@@ -195,61 +196,70 @@
     <t>Coding</t>
   </si>
   <si>
-    <t>HW - Network Security</t>
-  </si>
-  <si>
-    <t>S00000913001</t>
-  </si>
-  <si>
-    <t>C&amp;S SUB CONTRACTOR</t>
-  </si>
-  <si>
-    <t>4201</t>
-  </si>
-  <si>
     <t>026909B2065</t>
   </si>
   <si>
     <t>362</t>
   </si>
   <si>
-    <t>Test Automation India Anmol</t>
-  </si>
-  <si>
     <t>Product2</t>
   </si>
   <si>
     <t>Provide123*</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>S00008044001</t>
-  </si>
-  <si>
     <t>Eur</t>
   </si>
   <si>
     <t>EMEAAD\srofidal</t>
   </si>
   <si>
-    <t>EMEAAD\pvergez</t>
-  </si>
-  <si>
-    <t>EMEAAD\bcornu</t>
-  </si>
-  <si>
     <t>SellingPrice</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>1000</t>
+    <t>S00001610001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DSI-BUILD-OAR-50</t>
+  </si>
+  <si>
+    <t>DSI-BUILD-OAR-51</t>
+  </si>
+  <si>
+    <t>HW - Screen for PC</t>
+  </si>
+  <si>
+    <t>SW &amp; Solutions - IS-HR</t>
+  </si>
+  <si>
+    <t>RENT FIXED COST</t>
+  </si>
+  <si>
+    <t>SAAS FIXED COST</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>EMEAAD\lbaisin</t>
   </si>
 </sst>
 </file>
@@ -669,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>31</v>
@@ -765,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>7</v>
@@ -777,7 +787,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>17</v>
@@ -801,12 +811,12 @@
         <v>25</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -815,13 +825,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -830,84 +840,84 @@
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="8" t="s">
+      <c r="Y2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="AF2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
@@ -916,94 +926,94 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="N3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="T3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="AC3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="AF3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6457E45-9246-4888-914A-61CD00256A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9301BAA9-2A44-4797-AB4B-C3632A404599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Approver2</t>
   </si>
   <si>
-    <t>EMEAAD\anchaudhary</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -187,18 +184,9 @@
     <t>Product3</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>026909B2065</t>
-  </si>
-  <si>
     <t>362</t>
   </si>
   <si>
@@ -235,12 +223,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>DSI-BUILD-OAR-50</t>
-  </si>
-  <si>
-    <t>DSI-BUILD-OAR-51</t>
-  </si>
-  <si>
     <t>HW - Screen for PC</t>
   </si>
   <si>
@@ -260,6 +242,54 @@
   </si>
   <si>
     <t>EMEAAD\lbaisin</t>
+  </si>
+  <si>
+    <t>[DSI-BUILD]-OAR-TEST CASE 5</t>
+  </si>
+  <si>
+    <t>[DSI-BUILD]-OAR-TEST CASE 6</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>[DSI-BUILD]-OAR-TEST CASE 7</t>
+  </si>
+  <si>
+    <t>Product4</t>
+  </si>
+  <si>
+    <t>[DSI-BUILD]-OAR-TEST CASE 8</t>
+  </si>
+  <si>
+    <t>Services - Hosting</t>
+  </si>
+  <si>
+    <t>S00010252001</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>TND</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>PAAS IAAS FIXED COST</t>
+  </si>
+  <si>
+    <t>EMEAAD\bcornu</t>
+  </si>
+  <si>
+    <t>EMEAAD\oarsim</t>
   </si>
 </sst>
 </file>
@@ -346,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -369,12 +399,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -396,9 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,43 +717,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5546875" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="21" width="21.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" customWidth="1"/>
-    <col min="23" max="25" width="15.85546875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="21.88671875" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" customWidth="1"/>
+    <col min="23" max="25" width="15.88671875" style="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="19.7109375" customWidth="1"/>
-    <col min="31" max="31" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="19.6640625" customWidth="1"/>
+    <col min="31" max="31" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -727,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -757,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>6</v>
@@ -775,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>7</v>
@@ -787,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>17</v>
@@ -796,13 +836,13 @@
         <v>18</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>20</v>
@@ -811,27 +851,27 @@
         <v>25</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>24</v>
@@ -840,180 +880,372 @@
         <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="T2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>43</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="AF3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="T5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>34</v>
+      <c r="V5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1021,12 +1253,14 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C1B78C7E-7911-43ED-AF99-9E56177BCD8F}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{2C31F390-2496-4C99-ACCD-55C7E6D3A1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9301BAA9-2A44-4797-AB4B-C3632A404599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D2D0C-FBB0-4667-BE59-EE079E5ABD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Auteur</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -45,7 +44,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Auteur:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -265,9 +264,6 @@
     <t>Services - Hosting</t>
   </si>
   <si>
-    <t>S00010252001</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -290,6 +286,9 @@
   </si>
   <si>
     <t>EMEAAD\oarsim</t>
+  </si>
+  <si>
+    <t>S00014700001</t>
   </si>
 </sst>
 </file>
@@ -438,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -720,40 +719,40 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="AH1" sqref="AH1:AN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="21" width="21.88671875" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" customWidth="1"/>
-    <col min="23" max="25" width="15.88671875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="21.85546875" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" customWidth="1"/>
+    <col min="23" max="25" width="15.85546875" style="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="19.6640625" customWidth="1"/>
-    <col min="31" max="31" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="19.7109375" customWidth="1"/>
+    <col min="31" max="31" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -854,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -862,9 +861,9 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -900,8 +899,8 @@
       <c r="O2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>71</v>
+      <c r="P2" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>33</v>
@@ -953,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -961,9 +960,9 @@
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -999,8 +998,8 @@
       <c r="O3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>71</v>
+      <c r="P3" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>33</v>
@@ -1052,7 +1051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1060,9 +1059,9 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -1081,25 +1080,25 @@
         <v>65</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>71</v>
+      <c r="P4" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="Q4" s="14" t="s">
         <v>33</v>
@@ -1114,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>56</v>
@@ -1140,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>33</v>
@@ -1149,7 +1148,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1157,9 +1156,9 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -1178,7 +1177,7 @@
         <v>53</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>33</v>
@@ -1187,16 +1186,16 @@
         <v>51</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>71</v>
+      <c r="P5" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="Q5" s="14" t="s">
         <v>33</v>
@@ -1239,7 +1238,7 @@
         <v>33</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF5" s="6" t="s">
         <v>33</v>

--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D2D0C-FBB0-4667-BE59-EE079E5ABD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CF26D-6D6D-4709-84F9-532A4A2FE999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5385" yWindow="3615" windowWidth="21600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -138,9 +138,6 @@
     <t>SSP</t>
   </si>
   <si>
-    <t>Product1</t>
-  </si>
-  <si>
     <t>Approver2</t>
   </si>
   <si>
@@ -177,60 +174,27 @@
     <t>Purchase requisition</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>Product3</t>
   </si>
   <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>Product2</t>
-  </si>
-  <si>
     <t>Provide123*</t>
   </si>
   <si>
-    <t>Eur</t>
-  </si>
-  <si>
-    <t>EMEAAD\srofidal</t>
-  </si>
-  <si>
     <t>SellingPrice</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>S00001610001</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>HW - Screen for PC</t>
-  </si>
-  <si>
     <t>SW &amp; Solutions - IS-HR</t>
   </si>
   <si>
-    <t>RENT FIXED COST</t>
-  </si>
-  <si>
     <t>SAAS FIXED COST</t>
   </si>
   <si>
@@ -241,12 +205,6 @@
   </si>
   <si>
     <t>EMEAAD\lbaisin</t>
-  </si>
-  <si>
-    <t>[DSI-BUILD]-OAR-TEST CASE 5</t>
-  </si>
-  <si>
-    <t>[DSI-BUILD]-OAR-TEST CASE 6</t>
   </si>
   <si>
     <t>413</t>
@@ -295,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,12 +286,6 @@
       <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -412,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -420,17 +372,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -716,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AN1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +686,7 @@
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.5703125" customWidth="1"/>
     <col min="19" max="19" width="26" customWidth="1"/>
     <col min="20" max="21" width="21.85546875" customWidth="1"/>
@@ -766,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -796,12 +744,12 @@
         <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -814,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>7</v>
@@ -826,7 +774,7 @@
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>17</v>
@@ -835,431 +783,231 @@
         <v>18</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AB2" s="9"/>
       <c r="AC2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="J3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="T3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="X3" s="10"/>
       <c r="Y3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AC3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="AF3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{C1B78C7E-7911-43ED-AF99-9E56177BCD8F}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2C31F390-2496-4C99-ACCD-55C7E6D3A1AC}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C1B78C7E-7911-43ED-AF99-9E56177BCD8F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2C31F390-2496-4C99-ACCD-55C7E6D3A1AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId6"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CF26D-6D6D-4709-84F9-532A4A2FE999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60101181-0950-483B-8C0F-FCD395787DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="3615" windowWidth="21600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -189,24 +189,12 @@
     <t>yes</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>SW &amp; Solutions - IS-HR</t>
-  </si>
-  <si>
-    <t>SAAS FIXED COST</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>EMEAAD\lbaisin</t>
-  </si>
-  <si>
     <t>413</t>
   </si>
   <si>
@@ -216,9 +204,6 @@
     <t>Product4</t>
   </si>
   <si>
-    <t>[DSI-BUILD]-OAR-TEST CASE 8</t>
-  </si>
-  <si>
     <t>Services - Hosting</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
     <t>50000</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
     <t>TND</t>
   </si>
   <si>
@@ -247,13 +229,85 @@
   </si>
   <si>
     <t>S00014700001</t>
+  </si>
+  <si>
+    <t>EMEAAD\anchaudhary</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Test Automation India Anmol</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>HW - Network Security</t>
+  </si>
+  <si>
+    <t>S00008044001</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>MAINT FIXED COST</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>EMEAAD\pvergez</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>[DSI-BUILD]-OAR-TEST CASE 5</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>HW - Screen for PC</t>
+  </si>
+  <si>
+    <t>S00001610001</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Eur</t>
+  </si>
+  <si>
+    <t>RENT FIXED COST</t>
+  </si>
+  <si>
+    <t>EMEAAD\srofidal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +359,18 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -364,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -383,6 +449,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -664,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,46 +901,46 @@
         <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>32</v>
@@ -863,13 +955,13 @@
         <v>32</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10" t="s">
@@ -889,111 +981,212 @@
         <v>32</v>
       </c>
       <c r="AE2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="H3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="Q4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="6" t="s">
+      <c r="Z4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="32" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1001,13 +1194,14 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C1B78C7E-7911-43ED-AF99-9E56177BCD8F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{2C31F390-2496-4C99-ACCD-55C7E6D3A1AC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{08A1F94F-D207-4E1B-A1F4-653E7269FE7D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/provide/test/TestDataProvide.xlsx
+++ b/provide/test/TestDataProvide.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60101181-0950-483B-8C0F-FCD395787DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EF9AB3-9DFC-429C-A502-6EF6702DD98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -271,43 +271,13 @@
   </si>
   <si>
     <t>EMEAAD\pvergez</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>[DSI-BUILD]-OAR-TEST CASE 5</t>
-  </si>
-  <si>
-    <t>Product1</t>
-  </si>
-  <si>
-    <t>HW - Screen for PC</t>
-  </si>
-  <si>
-    <t>S00001610001</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Eur</t>
-  </si>
-  <si>
-    <t>RENT FIXED COST</t>
-  </si>
-  <si>
-    <t>EMEAAD\srofidal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,12 +334,6 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Fira Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -430,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -460,21 +424,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -756,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AJ1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,117 +1040,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C1B78C7E-7911-43ED-AF99-9E56177BCD8F}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{08A1F94F-D207-4E1B-A1F4-653E7269FE7D}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>